--- a/SimpleRespiratorySensor v3 BOM.xlsx
+++ b/SimpleRespiratorySensor v3 BOM.xlsx
@@ -8,19 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\EAGLE\projects\SimpleRespiratorySensor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F87CD0F-6664-4E20-BC6C-A753EA861424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D6E0BFE-AACD-46DC-9985-339426DBD921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0DBBBA81-69BA-4BE5-849C-7A258A71F581}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8928" xr2:uid="{77B9AF4C-003B-471A-A190-D4477FB871B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="SimpleRespiratorySensor v3 Asse" sheetId="1" r:id="rId1"/>
+    <sheet name="SimpleRespiratorySensor v3 bom" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Parts</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
   <si>
     <t>LED3MM</t>
   </si>
@@ -28,6 +46,12 @@
     <t>LED1</t>
   </si>
   <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>SCHOTTKY-DIODEDO35-7</t>
+  </si>
+  <si>
     <t>DO35-7</t>
   </si>
   <si>
@@ -37,87 +61,180 @@
     <t>Schottky Diode</t>
   </si>
   <si>
+    <t>0.1u</t>
+  </si>
+  <si>
+    <t>C-US025-025X050</t>
+  </si>
+  <si>
     <t>C025-025X050</t>
   </si>
   <si>
     <t>C1, C2, C3, C5</t>
   </si>
   <si>
+    <t>CAPACITOR, American symbol</t>
+  </si>
+  <si>
+    <t>1-227161-0</t>
+  </si>
+  <si>
     <t>AMP_227161</t>
   </si>
   <si>
     <t>X1, X3, X4</t>
   </si>
   <si>
+    <t>JACK,  RIGHT ANGLE, 50 OHM, PCB, BNC</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>POTENTIOMETER-PTH-9MM-1/20W-20%-KIT</t>
+  </si>
+  <si>
     <t>POT-PTH-ALPS-KIT</t>
   </si>
   <si>
     <t>VR1</t>
   </si>
   <si>
+    <t>Potentiometer (Pot)</t>
+  </si>
+  <si>
+    <t>R-US_0204/5</t>
+  </si>
+  <si>
     <t>0204/5</t>
   </si>
   <si>
-    <t>R9, R10, R16, R20, R23</t>
+    <t>R9, R10, R16, R20</t>
+  </si>
+  <si>
+    <t>RESISTOR, American symbol</t>
+  </si>
+  <si>
+    <t>10n</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
+    <t>180k</t>
+  </si>
+  <si>
     <t>R2</t>
   </si>
   <si>
     <t>1M</t>
   </si>
   <si>
+    <t>PDB12-H4301-105BF</t>
+  </si>
+  <si>
     <t>PDB12H4301105BF</t>
   </si>
   <si>
     <t>VR2</t>
   </si>
   <si>
+    <t>Potentiometers 1M LINEAR 12MM</t>
+  </si>
+  <si>
     <t>R26</t>
   </si>
   <si>
+    <t>1k</t>
+  </si>
+  <si>
     <t>R8, R11, R12, R13, R27</t>
   </si>
   <si>
+    <t>1u</t>
+  </si>
+  <si>
     <t>C4, C6, C7, C12, C13</t>
   </si>
   <si>
+    <t>220k</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
     <t>R15</t>
   </si>
   <si>
+    <t>27k</t>
+  </si>
+  <si>
     <t>R1</t>
   </si>
   <si>
+    <t>3.3n</t>
+  </si>
+  <si>
     <t>C11</t>
   </si>
   <si>
+    <t>33u</t>
+  </si>
+  <si>
     <t>C9</t>
   </si>
   <si>
+    <t>390k</t>
+  </si>
+  <si>
     <t>R14</t>
   </si>
   <si>
+    <t>4.7k</t>
+  </si>
+  <si>
     <t>R21</t>
   </si>
   <si>
+    <t>470k</t>
+  </si>
+  <si>
     <t>R25</t>
   </si>
   <si>
+    <t>47k</t>
+  </si>
+  <si>
     <t>R24</t>
   </si>
   <si>
+    <t>47n</t>
+  </si>
+  <si>
     <t>C10</t>
   </si>
   <si>
+    <t>50k</t>
+  </si>
+  <si>
+    <t>TRIM_US-B64W</t>
+  </si>
+  <si>
     <t>B64W</t>
   </si>
   <si>
     <t>R5, R6, R7</t>
   </si>
   <si>
+    <t>POTENTIOMETER</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>ZENER-DIODEDO34-7</t>
+  </si>
+  <si>
     <t>DO34Z7</t>
   </si>
   <si>
@@ -127,6 +244,9 @@
     <t>Z-Diode</t>
   </si>
   <si>
+    <t>GF-123-0054</t>
+  </si>
+  <si>
     <t>SW_GF-123-0054</t>
   </si>
   <si>
@@ -136,15 +256,42 @@
     <t>Slide Switch SPST Through Hole</t>
   </si>
   <si>
+    <t>MCP602P</t>
+  </si>
+  <si>
+    <t>DIL08</t>
+  </si>
+  <si>
     <t>IC1, IC2, IC3, IC4</t>
   </si>
   <si>
+    <t>Single Op Amp 2.7V to 6.0V Single Supply CMOS</t>
+  </si>
+  <si>
+    <t>MCP6541-E/P</t>
+  </si>
+  <si>
     <t>IC5</t>
   </si>
   <si>
+    <t>Check availability</t>
+  </si>
+  <si>
+    <t>NANO_FOOTPRINT</t>
+  </si>
+  <si>
+    <t>NANO</t>
+  </si>
+  <si>
     <t>IC6</t>
   </si>
   <si>
+    <t>Generic Nano Footprint</t>
+  </si>
+  <si>
+    <t>S2B-XH-A(LF)(SN)</t>
+  </si>
+  <si>
     <t>HDR-02/RA</t>
   </si>
   <si>
@@ -152,102 +299,6 @@
   </si>
   <si>
     <t>CONN HEADER R/A 2POS 2.5MM</t>
-  </si>
-  <si>
-    <t>Designator</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>LED, raise with 6mm spacer</t>
-  </si>
-  <si>
-    <t>10k Potentiometer (Pot)</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>180K</t>
-  </si>
-  <si>
-    <t>1M Potentiometer (Pot)</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>27K</t>
-  </si>
-  <si>
-    <t>3.3nF</t>
-  </si>
-  <si>
-    <t>33uF</t>
-  </si>
-  <si>
-    <t>390K</t>
-  </si>
-  <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <t>4.7K</t>
-  </si>
-  <si>
-    <t>470K</t>
-  </si>
-  <si>
-    <t>47K</t>
-  </si>
-  <si>
-    <t>47nF</t>
-  </si>
-  <si>
-    <t>50k Trimmer</t>
-  </si>
-  <si>
-    <t>MCP6541</t>
-  </si>
-  <si>
-    <t>Arduino Nano Every</t>
-  </si>
-  <si>
-    <t>Right angle BNC (bottom of board)</t>
-  </si>
-  <si>
-    <t>JLCPCB Part #</t>
-  </si>
-  <si>
-    <t>MCP6022-I/P</t>
-  </si>
-  <si>
-    <t>C640399</t>
-  </si>
-  <si>
-    <t>PDIP-08</t>
-  </si>
-  <si>
-    <t>C471523</t>
-  </si>
-  <si>
-    <t>C118650</t>
-  </si>
-  <si>
-    <t>C516611</t>
-  </si>
-  <si>
-    <t>NANO EVERY</t>
   </si>
 </sst>
 </file>
@@ -731,9 +782,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1108,353 +1158,605 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC38802-7B43-46CE-8719-28A21E5BA992}">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CC2B39-C869-4992-8309-A030F071709C}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>270</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>270</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>65</v>
-      </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>66</v>
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>43</v>
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
